--- a/biology/Botanique/Anémomorphose/Anémomorphose.xlsx
+++ b/biology/Botanique/Anémomorphose/Anémomorphose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An%C3%A9momorphose</t>
+          <t>Anémomorphose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « anémomorphose » (bâti à partir du grec ancien anémos (άνεμος), qui signifie « vent », et morphos (μορφος), « forme ») est un accomodat qui consiste en la modification de la forme des végétaux et des paysages associés sous l'effet de forts vents dominants. Il constitue un cas particulier de la thigmomorphogenèse. Ce phénomène est surtout remarquable sur les formes anémomorphosées des plantes ligneuses du littoral et en montagne.
 L'anémomorphose est une écomorphose, modification ou adaptation des caractéristiques morphologiques des végétaux et/ou des animaux sous l'influence des conditions écologiques locales (lumière, température, vent).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An%C3%A9momorphose</t>
+          <t>Anémomorphose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Mécanismes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains territoires sont spécialement soumis à l'influence du vent et en particulier de forts vents dominants, c'est-à-dire soufflant le plus souvent d'une direction privilégiée. Contrairement aux animaux, les végétaux ne peuvent s'y soustraire. Ils doivent par conséquent, de la germination à leur disparition, subir en permanence les effets de ce facteur écologique.
 Le déplacement de l'air peut en soi, lorsqu'il est suffisamment intense ou continu, imposer des contraintes sur le développement des plantes. Mais l'impact des vents sur les écosystèmes est en général fortement aggravé par deux phénomènes :
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An%C3%A9momorphose</t>
+          <t>Anémomorphose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,41 +560,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Modalités</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Formes
-Niveaux de modification</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>An%C3%A9momorphose</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/An%C3%A9momorphose</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Échelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
